--- a/02_Daten/test.xlsx
+++ b/02_Daten/test.xlsx
@@ -19,22 +19,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Matrikelnr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Althoff</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Dänzer</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>Feinauer</t>
+  </si>
+  <si>
+    <t>Katharina</t>
+  </si>
+  <si>
+    <t>Schmitt</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Scotellaro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -57,13 +106,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,64 +446,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/02_Daten/test.xlsx
+++ b/02_Daten/test.xlsx
@@ -39,9 +39,6 @@
     <t>Christian</t>
   </si>
   <si>
-    <t>Dänzer</t>
-  </si>
-  <si>
     <t>Pascal</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Scotellaro</t>
+  </si>
+  <si>
+    <t>Daenzer</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>55</v>
@@ -489,10 +489,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -500,10 +500,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
       <c r="C5">
         <v>95</v>
@@ -511,10 +511,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
       <c r="C6">
         <v>40</v>
